--- a/returns.xlsx
+++ b/returns.xlsx
@@ -1,51 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicorvinus-my.sharepoint.com/personal/andras_salamon_stud_uni-corvinus_hu/Documents/Dokumentumok/asuli/9 félév/bizonytalansag/ppa/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_2BB1D69C5B005AAE5C71FE914A3F30B551BFE30C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E89BE2B-0B5B-4B92-813E-6EDA6DD859D4}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>returns</t>
+    <t>Net Asset Value per Shares</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,9 +37,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,23 +83,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -405,365 +379,360 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>45048</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>45049</v>
       </c>
       <c r="B3">
-        <v>4.0797984886631328E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0004079798488663133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>45050</v>
       </c>
       <c r="B4">
-        <v>-1.6305841232855389E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>-0.0001630584123285539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>45051</v>
       </c>
       <c r="B5">
-        <v>2.6837140638003021E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0002683714063800302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>45054</v>
       </c>
       <c r="B6">
-        <v>7.8997358197518963E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0007899735819751896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>45055</v>
       </c>
       <c r="B7">
-        <v>2.0451106398322591E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0002045110639832259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>45056</v>
       </c>
       <c r="B8">
-        <v>1.4406585425841281E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0001440658542584128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>45057</v>
       </c>
       <c r="B9">
-        <v>3.9133901497345752E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0003913390149734575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>45058</v>
       </c>
       <c r="B10">
-        <v>4.1035602325067982E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0004103560232506798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>45061</v>
       </c>
       <c r="B11">
-        <v>8.1417554719576124E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0008141755471957612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>45062</v>
       </c>
       <c r="B12">
-        <v>6.3495232915133926E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0006349523291513393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>45063</v>
       </c>
       <c r="B13">
-        <v>1.1180107223303091E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.001118010722330309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>45064</v>
       </c>
       <c r="B14">
-        <v>6.3024840987191411E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0006302484098719141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>45065</v>
       </c>
       <c r="B15">
-        <v>8.0192570143067243E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0008019257014306724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>45068</v>
       </c>
       <c r="B16">
-        <v>1.213627710849652E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.001213627710849652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>45069</v>
       </c>
       <c r="B17">
-        <v>6.2674644743054841E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0006267464474305484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>45070</v>
       </c>
       <c r="B18">
-        <v>4.7598769288148551E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0004759876928814855</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>45071</v>
       </c>
       <c r="B19">
-        <v>6.6657743283982107E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0006665774328398211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>45072</v>
       </c>
       <c r="B20">
-        <v>5.1074912955617613E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0005107491295561761</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>45076</v>
       </c>
       <c r="B21">
-        <v>2.0236791809209449E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.002023679180920945</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>45077</v>
       </c>
       <c r="B22">
-        <v>3.3015202826081058E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0003301520282608106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>45078</v>
       </c>
       <c r="B23">
-        <v>2.2422156948809219E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0002242215694880922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>45079</v>
       </c>
       <c r="B24">
-        <v>3.370668159343726E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0003370668159343726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>45082</v>
       </c>
       <c r="B25">
-        <v>7.8190268369970894E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0007819026836997089</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>45083</v>
       </c>
       <c r="B26">
-        <v>9.322416458996674E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0009322416458996674</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>45084</v>
       </c>
       <c r="B27">
-        <v>1.108273125318471E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.001108273125318471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>45085</v>
       </c>
       <c r="B28">
-        <v>9.1088543665485133E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0009108854366548513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>45086</v>
       </c>
       <c r="B29">
-        <v>4.1757133799746882E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0004175713379974688</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>45089</v>
       </c>
       <c r="B30">
-        <v>1.187282521223576E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.001187282521223576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>45090</v>
       </c>
       <c r="B31">
-        <v>4.8885016705479956E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0004888501670547996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>45091</v>
       </c>
       <c r="B32">
-        <v>4.4321840242522731E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0004432184024252273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>45092</v>
       </c>
       <c r="B33">
-        <v>3.2434544842696589E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0003243454484269659</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>45093</v>
       </c>
       <c r="B34">
-        <v>1.4902222259305381E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0001490222225930538</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>45096</v>
       </c>
       <c r="B35">
-        <v>7.4965572773200151E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0007496557277320015</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>45097</v>
       </c>
       <c r="B36">
-        <v>5.5723185076561599E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.000557231850765616</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>45098</v>
       </c>
       <c r="B37">
-        <v>5.8819092749673452E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0005881909274967345</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>45099</v>
       </c>
       <c r="B38">
-        <v>3.1612924263679792E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0003161292426367979</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>45100</v>
       </c>
       <c r="B39">
-        <v>2.4552344684525268E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0002455234468452527</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>45103</v>
       </c>
       <c r="B40">
-        <v>2.1555815789260362E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.002155581578926036</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>45104</v>
       </c>
       <c r="B41">
-        <v>1.5055020342618079E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.001505502034261808</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>45105</v>
       </c>
       <c r="B42">
-        <v>1.821155967995258E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.001821155967995258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>45106</v>
       </c>
       <c r="B43">
-        <v>2.8298572013207851E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.0002829857201320785</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>45107</v>
       </c>
       <c r="B44">
-        <v>7.6326191420084122E-4</v>
+        <v>0.0007632619142008412</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>